--- a/stats/Experimentos/Experimento2-micros-17-06.xlsx
+++ b/stats/Experimentos/Experimento2-micros-17-06.xlsx
@@ -1393,26 +1393,39 @@
         <v>1.000607</v>
       </c>
       <c r="N19" s="19">
-        <f>STDEV(B19:M19)</f>
-        <v>0.00137064478</v>
+        <f>STDEV(B19:E19,G19:K19,M19)</f>
+        <v>0.0003371643846</v>
       </c>
       <c r="O19" s="19">
         <f>N19*600/10^6</f>
-        <v>0.0000008223868682</v>
+        <v>0.0000002022986307</v>
       </c>
       <c r="P19" s="22">
-        <f>sqrt(1+4^2)</f>
-        <v>4.123105626</v>
+        <f>sqrt(0.000605^2+1)</f>
+        <v>1.000000183</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
+      <c r="N20" s="19">
+        <f>AVERAGE(B19:E19,G19:K19,M19)</f>
+        <v>1.0006576</v>
+      </c>
       <c r="O20" s="19">
         <f>N19*439/10^3</f>
-        <v>0.0006017130585</v>
+        <v>0.0001480151648</v>
+      </c>
+      <c r="P20" s="22">
+        <f>sqrt((O20*1000)^2+1)</f>
+        <v>1.010894895</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="N22" s="19">
+        <f>N20-1</f>
+        <v>0.0006576</v>
+      </c>
+    </row>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
     <row r="25" ht="15.75" customHeight="1"/>
